--- a/data/mesozoic_data.xlsx
+++ b/data/mesozoic_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\AptianShark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5BFCCF-14E3-4B80-9729-CB91DB3C09F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E01FF1-90B4-4E3D-835B-F562A6E37A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,9 +307,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,11 +630,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -641,7 +642,7 @@
     <col min="4" max="4" width="18.62890625" customWidth="1"/>
     <col min="5" max="5" width="18.7890625" customWidth="1"/>
     <col min="6" max="6" width="29.83984375" customWidth="1"/>
-    <col min="7" max="7" width="5.578125" customWidth="1"/>
+    <col min="7" max="7" width="6.68359375" customWidth="1"/>
     <col min="8" max="8" width="27.5234375" customWidth="1"/>
     <col min="9" max="9" width="16.41796875" customWidth="1"/>
     <col min="10" max="10" width="44.89453125" customWidth="1"/>
@@ -1239,6 +1240,9 @@
         <v>23</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/mesozoic_data.xlsx
+++ b/data/mesozoic_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\AptianShark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E01FF1-90B4-4E3D-835B-F562A6E37A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE128365-7EDD-4DC7-8FE7-B9C3831BAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -307,12 +307,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,26 +627,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83984375" customWidth="1"/>
-    <col min="2" max="2" width="12.734375" customWidth="1"/>
-    <col min="3" max="3" width="21.1015625" customWidth="1"/>
-    <col min="4" max="4" width="18.62890625" customWidth="1"/>
-    <col min="5" max="5" width="18.7890625" customWidth="1"/>
-    <col min="6" max="6" width="29.83984375" customWidth="1"/>
-    <col min="7" max="7" width="6.68359375" customWidth="1"/>
-    <col min="8" max="8" width="27.5234375" customWidth="1"/>
-    <col min="9" max="9" width="16.41796875" customWidth="1"/>
-    <col min="10" max="10" width="44.89453125" customWidth="1"/>
-    <col min="11" max="11" width="45.3125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="44.85546875" customWidth="1"/>
+    <col min="11" max="11" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +684,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>115</v>
       </c>
@@ -722,7 +719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>87</v>
       </c>
@@ -760,7 +757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
@@ -798,7 +795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>110</v>
       </c>
@@ -833,7 +830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>107</v>
       </c>
@@ -865,7 +862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>110</v>
       </c>
@@ -897,7 +894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>144</v>
       </c>
@@ -932,7 +929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>44</v>
       </c>
@@ -971,7 +968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>41</v>
       </c>
@@ -1010,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>35</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>58</v>
       </c>
@@ -1088,7 +1085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>45</v>
       </c>
@@ -1127,7 +1124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>64</v>
       </c>
@@ -1166,7 +1163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>100</v>
       </c>
@@ -1205,7 +1202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>89.5</v>
       </c>
@@ -1239,9 +1236,6 @@
       <c r="L16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
